--- a/HackingWith Swift Timeline.xlsx
+++ b/HackingWith Swift Timeline.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debola/Documents/Psyco/Swift Learning/100Days of SwiftUI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adebola/Documents/Psyco/Swift Learning/100Days of SwiftUI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19578C44-3A16-984C-96D4-A40EB53D3CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359B046-F5B3-FB48-A2BA-254C0B7874C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{EFBFEA28-50A6-E34A-885F-2E2C1F75E7BD}"/>
+    <workbookView xWindow="-33540" yWindow="500" windowWidth="34560" windowHeight="21600" xr2:uid="{EFBFEA28-50A6-E34A-885F-2E2C1F75E7BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,7 +386,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
